--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 09:40:30</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:14:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:14:03</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:58:18</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -29223,7 +29223,7 @@
         <v>301</v>
       </c>
       <c r="K268" s="0">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="L268" s="0" t="s">
         <v>1350</v>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:58:18</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:19:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:19:40</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:36:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:36:49</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:48:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:48:08</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:55:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:55:58</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:13:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:13:18</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:35:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:35:26</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:49:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:49:40</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:57:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:57:16</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:12:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:12:31</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:28:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:28:38</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:38:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:38:20</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:47:13</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:56:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:56:51</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:13:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:13:34</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:35:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:35:23</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:48:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9896,7 +9896,7 @@
     <t>MOCOTÓ</t>
   </si>
   <si>
-    <t>FRANCISCO XAVIER DA SILVA</t>
+    <t>Francisco Xavier da Silva</t>
   </si>
   <si>
     <t>-16°14'50.820"</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:48:39</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:57:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:57:34</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:12:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:12:11</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:26:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:26:11</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:35:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:35:33</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:44:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:44:33</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:53:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:53:39</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:02:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:02:51</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:29:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:29:46</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:44:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:44:30</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:53:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:53:41</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:01:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:01:12</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:20:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:20:34</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:33:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:33:29</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:42:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:42:17</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:51:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:51:27</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:59:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:59:56</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:20:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:20:48</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:36:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:36:30</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:46:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:46:09</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:54:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:54:58</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:04:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:04:08</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:21:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:21:03</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:30:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:30:21</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:39:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:39:54</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:48:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:48:56</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:56:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:56:57</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 09:20:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 09:20:34</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 09:54:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 09:54:33</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 10:17:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 10:17:46</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 10:36:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 10:36:52</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 10:45:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 10:45:52</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 10:55:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 10:55:41</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:04:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:04:31</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:24:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:24:00</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:34:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:34:24</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:42:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:42:56</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 11:52:05</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -59069,7 +59069,7 @@
         <v>33</v>
       </c>
       <c r="S752" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T752" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 11:52:05</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:01:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:01:39</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:21:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:21:45</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:34:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:34:19</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:44:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:44:28</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 12:52:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 12:52:57</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:02:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:02:43</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:32:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:32:26</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 01:52:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 01:52:00</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:02:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:02:54</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:18:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:18:52</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:32:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:32:01</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:41:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:41:35</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:50:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:50:20</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 02:59:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 02:59:06</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:17:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:17:19</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:32:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:32:38</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:43:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:43:13</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 03:51:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 03:51:45</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:00:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:00:36</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:16:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221615.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:16:00</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:25:20</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -11564,7 +11564,7 @@
     <t>-44°00'22.400"</t>
   </si>
   <si>
-    <t>711.922,32</t>
+    <t>718.492,00</t>
   </si>
   <si>
     <t>Santa Helena</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:25:20</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:34:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:34:30</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:43:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:43:22</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 04:51:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 04:51:43</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:00:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:00:34</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:19:52</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1340,7 +1340,7 @@
     <t>-48°45'25.300"</t>
   </si>
   <si>
-    <t>493.330,00</t>
+    <t>493.885,00</t>
   </si>
   <si>
     <t>Bacia 5 A</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:19:52</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:30:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:30:48</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:40:32</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -10502,7 +10502,7 @@
     <t>-43°41'39.320"</t>
   </si>
   <si>
-    <t>863.785,00</t>
+    <t>222.164,01</t>
   </si>
   <si>
     <t>PILHA 05 - P5C07</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:40:32</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:49:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:49:36</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 05:57:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 05:57:37</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:12:15</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1388,7 +1388,7 @@
     <t>-48°44'49.400"</t>
   </si>
   <si>
-    <t>509.090,00</t>
+    <t>523.636,00</t>
   </si>
   <si>
     <t>Bacia 6B</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222515.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:12:15</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:25:09</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -18282,7 +18282,7 @@
         <v>44</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="O91" s="0" t="s">
         <v>46</v>
@@ -26132,19 +26132,19 @@
         <v>147</v>
       </c>
       <c r="N218" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O218" s="0" t="s">
         <v>46</v>
       </c>
       <c r="P218" s="0" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="Q218" s="0" t="s">
         <v>48</v>
       </c>
       <c r="R218" s="0" t="s">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="S218" s="0" t="s">
         <v>148</v>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222515.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:25:09</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:34:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224315.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:34:05</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:43:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224315.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:43:24</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 06:52:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225215.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 06:52:21</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:01:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220115.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221815.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:01:09</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:18:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221815.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223015.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:18:14</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:30:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223015.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:30:49</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:39:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224915.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:39:47</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:49:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224915.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:49:12</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 07:57:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221415.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 07:57:33</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:14:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221415.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:14:28</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:37:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224715.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:37:17</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:47:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-15.xlsx
+++ b/sigbm_download_2022-12-15.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224715.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225615.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 15/12/2022 - 08:47:45</t>
+    <t>Informação extraída do SIGBM: 15/12/2022 - 08:56:24</t>
   </si>
   <si>
     <t>ID Barragem</t>
